--- a/data/trans_dic/P19E_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Habitat-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.3844882085525343</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.3340293389689994</v>
+        <v>0.3340293389689993</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.2988945184757584</v>
@@ -624,7 +624,7 @@
         <v>0.341483827460247</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.2623314008864136</v>
+        <v>0.2623314008864137</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3467376329891624</v>
+        <v>0.3477928311098454</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.298306193246498</v>
+        <v>0.2981800437390876</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2612956666097869</v>
+        <v>0.2640418804860714</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1733171334700221</v>
+        <v>0.1751178214745036</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3163518981138243</v>
+        <v>0.3145598476724668</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.242688566558306</v>
+        <v>0.2431140459763038</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4267445388880832</v>
+        <v>0.4226163081047609</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3730151041886563</v>
+        <v>0.3703767761682781</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3365655318785903</v>
+        <v>0.3376186812714463</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.21884678446098</v>
+        <v>0.2220916967102765</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3697772474274534</v>
+        <v>0.3667716192191489</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2842687479113382</v>
+        <v>0.2870018452364503</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.2409587366425742</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1741297996227163</v>
+        <v>0.1741297996227162</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3005088615127951</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3303131671717485</v>
+        <v>0.33153423088224</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1989344267415411</v>
+        <v>0.1991742569698756</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2151692811934146</v>
+        <v>0.2138349387451851</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1556540455508742</v>
+        <v>0.1557610143263372</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2803367665869894</v>
+        <v>0.2804812607853998</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1842248884638399</v>
+        <v>0.182397794627656</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3935958325253599</v>
+        <v>0.3942586963007345</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2508670248394669</v>
+        <v>0.2542488293421054</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2686757854854013</v>
+        <v>0.2687264580113247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1935629635912987</v>
+        <v>0.1937711735034335</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3220299838678138</v>
+        <v>0.3223099564071037</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2186333187752376</v>
+        <v>0.2159171559334549</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3757951783723752</v>
+        <v>0.3764336064725577</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2453153944582958</v>
+        <v>0.2466255594445994</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2457904385287654</v>
+        <v>0.2446129992623322</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1482440738283578</v>
+        <v>0.1504932953093297</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3192349643335491</v>
+        <v>0.3194618897396249</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.20391891802725</v>
+        <v>0.2031607674915254</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4522352628001581</v>
+        <v>0.4490395320073709</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3150541933123737</v>
+        <v>0.3168631264274648</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3118320427165794</v>
+        <v>0.3151441542439156</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1952398498742394</v>
+        <v>0.1979401044056371</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3723118372505934</v>
+        <v>0.3724460367457009</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2472381053176438</v>
+        <v>0.2468733636260552</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2289460135065233</v>
+        <v>0.2266198808212892</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1794043414181131</v>
+        <v>0.1790708400802011</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1432510661168203</v>
+        <v>0.1445769738123113</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1260456608075966</v>
+        <v>0.1245896071910778</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1925524231397864</v>
+        <v>0.1911214403412542</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1570211372969884</v>
+        <v>0.1552886753482299</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2866242206284411</v>
+        <v>0.2839801035355863</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2369665058770903</v>
+        <v>0.2333763090160386</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1932375167182396</v>
+        <v>0.1937540671284705</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1618194599070967</v>
+        <v>0.1590316821616559</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2303438128761372</v>
+        <v>0.2298067266803351</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1880860690890548</v>
+        <v>0.1861068159900336</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3303095614426234</v>
+        <v>0.3324129839775321</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2378566513783182</v>
+        <v>0.2382234176206313</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2245877987815423</v>
+        <v>0.2248348221992963</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1576526223747825</v>
+        <v>0.1574841263937971</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2828395537144792</v>
+        <v>0.2810784725827337</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2002364559443913</v>
+        <v>0.2002871136873857</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3652058592670118</v>
+        <v>0.3652041152205048</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2690271543386024</v>
+        <v>0.2689768009754597</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2541388189270887</v>
+        <v>0.2558849472671814</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.177589683014208</v>
+        <v>0.1782168513172317</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3040394926240069</v>
+        <v>0.3042037532016771</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2188416945617814</v>
+        <v>0.2180997542709679</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>226599</v>
+        <v>227289</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>203456</v>
+        <v>203370</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>172426</v>
+        <v>174238</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>126091</v>
+        <v>127401</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>415498</v>
+        <v>413144</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>342082</v>
+        <v>342681</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>278885</v>
+        <v>276187</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>254410</v>
+        <v>252610</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>222095</v>
+        <v>222790</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>159214</v>
+        <v>161575</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>485667</v>
+        <v>481720</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>400691</v>
+        <v>404543</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>332143</v>
+        <v>333371</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>208385</v>
+        <v>208636</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>221529</v>
+        <v>220155</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>165529</v>
+        <v>165642</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>570512</v>
+        <v>570806</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>388889</v>
+        <v>385032</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>395776</v>
+        <v>396443</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>262785</v>
+        <v>266327</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>276617</v>
+        <v>276669</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>205842</v>
+        <v>206064</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>655362</v>
+        <v>655931</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>461523</v>
+        <v>455789</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>271185</v>
+        <v>271645</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>196573</v>
+        <v>197623</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>184332</v>
+        <v>183449</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>120038</v>
+        <v>121859</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>469782</v>
+        <v>470116</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>328522</v>
+        <v>327300</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>326346</v>
+        <v>324040</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>252455</v>
+        <v>253905</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>233861</v>
+        <v>236345</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>158092</v>
+        <v>160278</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>547889</v>
+        <v>548086</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>398310</v>
+        <v>397723</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>210008</v>
+        <v>207874</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>176583</v>
+        <v>176255</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>145578</v>
+        <v>146925</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>140158</v>
+        <v>138539</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>372305</v>
+        <v>369538</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>329154</v>
+        <v>325522</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>262915</v>
+        <v>260490</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>233240</v>
+        <v>229707</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>196376</v>
+        <v>196901</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>179937</v>
+        <v>176837</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>445375</v>
+        <v>444337</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>394273</v>
+        <v>390124</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1089350</v>
+        <v>1096287</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>836096</v>
+        <v>837385</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>776095</v>
+        <v>776948</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>585309</v>
+        <v>584683</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1910188</v>
+        <v>1898294</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1447264</v>
+        <v>1447630</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1204437</v>
+        <v>1204431</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>945664</v>
+        <v>945487</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>878213</v>
+        <v>884247</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>659328</v>
+        <v>661656</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2053364</v>
+        <v>2054474</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1581738</v>
+        <v>1576376</v>
       </c>
     </row>
     <row r="24">
